--- a/assets/PythonEscapeRoom.xlsx
+++ b/assets/PythonEscapeRoom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiandres/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiandres/Projects/europycon/pyschool_repos/pyscape/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F820202-0499-954B-91E4-DAA38FEFC8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19F5E1A-CBF5-3342-8DF8-B604E1532758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E1E7E874-1C0D-0E41-AB9E-1E43EB992A6A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="112">
   <si>
     <t>Sala</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Manejar interfaz del sitio</t>
   </si>
   <si>
-    <t>Agradecer tiempo / indicar que ha salido de escape room</t>
-  </si>
-  <si>
     <t>Desafío</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>Ver que es más facil programar que hacer a mano</t>
   </si>
   <si>
-    <t>Ver que Python puede usarse como calculadora, ver como se indican enteros en Python</t>
-  </si>
-  <si>
     <t>Ver que Python puede usarse como calculadora, ver como se representan floats (decimales) en Python</t>
   </si>
   <si>
@@ -161,14 +155,2271 @@
     <t>Contar una condición</t>
   </si>
   <si>
-    <t>Entregar una contraseña segura</t>
+    <r>
+      <t>Numbers (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Convert between types</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>int("42")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>float("3.14")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>str(5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Use round and formatting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>round(3.1415, 2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>f"{pi:.2f}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>🧵 Strings</t>
+  </si>
+  <si>
+    <r>
+      <t>Index and slice strings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>s[0]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>s[-1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>s[1:4]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Use common string methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.lower()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.upper()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.replace()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.split()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.join()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Format strings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>f"Hello, {name}!"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.format()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>📚 Lists</t>
+  </si>
+  <si>
+    <r>
+      <t>Access and modify elements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>my_list[0]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>my_list[2] = 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Use common list methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.append()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.pop()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.remove()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.sort()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.reverse()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Slice lists and use list comprehensions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>my_list[1:4]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>[x*2 for x in my_list]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>🧭 Dictionaries</t>
+  </si>
+  <si>
+    <r>
+      <t>Access values by key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>d["name"]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Add/update key-value pairs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>d["age"] = 30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Get all keys/values/items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>d.keys()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>d.values()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>d.items()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>🔁 Control Flow (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Use if/elif/else for branching</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – basic decision-making.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Loop over a list or range with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>for x in list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>for i in range(5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Use conditions inside loops</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – e.g., filtering or breaking early.</t>
+    </r>
+  </si>
+  <si>
+    <t>🧰 Functions</t>
+  </si>
+  <si>
+    <r>
+      <t>Define and call a function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>def greet(name): ...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>greet("Ada")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Use parameters and return values</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>def add(a, b): return a + b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Understand variable scope</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – local vs global variables, shadowing.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>🔢 Numbers (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use math functions from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>math</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> module</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>math.sqrt()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>math.ceil()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>math.pi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Check type of a value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>type(x)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>isinstance(x, int)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Check if substring is in string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>"cat" in "concatenate"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Strip whitespace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.strip()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.lstrip()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.rstrip()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Count or find substrings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.count("a")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.find("thing")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Loop with index using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>enumerate()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>for i, val in enumerate(my_list):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check membership with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>if x in my_list:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Copy a list (not just a reference)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>new_list = old_list[:]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>list(old_list)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Check if key exists</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>'name' in d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.get()</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with a default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>d.get("missing_key", "default")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Iterate over key-value pairs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>for k, v in d.items():</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>🔁 Control Flow</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>break</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>continue</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in loops</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – skip or exit early.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>range(start, stop, step)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>range(10, 0, -1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for countdown.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Nest conditionals and loops</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> inside </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> inside </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Use default parameter values</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>def greet(name="world")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pass lists/dicts to functions and modify them</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (mutability!).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Return multiple values</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>return x, y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, then unpack: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>a, b = func()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>🔄 Bonus (General Pythonic Tools)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>zip()</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to loop over two lists together</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>for a, b in zip(list1, list2):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ver que Python puede usarse como calculadora (operaciones ariméticas), ver como se indican enteros en Python</t>
+  </si>
+  <si>
+    <r>
+      <t>Perform arithmetic operations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Aprender la indexación de python (parte en 0, -1, etc.)</t>
+  </si>
+  <si>
+    <t>list, sort</t>
+  </si>
+  <si>
+    <t>list, append</t>
+  </si>
+  <si>
+    <t>Usar join para crear un string</t>
+  </si>
+  <si>
+    <t>dict</t>
+  </si>
+  <si>
+    <t>Crear un diccionario simple</t>
+  </si>
+  <si>
+    <t>Fin / Agradecer tiempo / indicar que ha salido de escape room</t>
+  </si>
+  <si>
+    <t>pagina</t>
+  </si>
+  <si>
+    <t>sala_00</t>
+  </si>
+  <si>
+    <t>sala_01</t>
+  </si>
+  <si>
+    <t>sala_02</t>
+  </si>
+  <si>
+    <t>sala_03</t>
+  </si>
+  <si>
+    <t>sala_04</t>
+  </si>
+  <si>
+    <t>sala_05</t>
+  </si>
+  <si>
+    <t>sala_06</t>
+  </si>
+  <si>
+    <t>sala_07</t>
+  </si>
+  <si>
+    <t>sala_08</t>
+  </si>
+  <si>
+    <t>sala_09</t>
+  </si>
+  <si>
+    <t>sala_10</t>
+  </si>
+  <si>
+    <t>sala_11</t>
+  </si>
+  <si>
+    <t>sala_12</t>
+  </si>
+  <si>
+    <t>sala_13</t>
+  </si>
+  <si>
+    <t>sala_14</t>
+  </si>
+  <si>
+    <t>sala_15</t>
+  </si>
+  <si>
+    <t>sala_16</t>
+  </si>
+  <si>
+    <t>sala_17</t>
+  </si>
+  <si>
+    <t>sala_final</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -181,6 +2432,69 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -198,7 +2512,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -225,10 +2539,25 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -236,11 +2565,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,294 +2910,560 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF96B7A6-165B-6149-8595-144D7B07AA7C}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D22" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="71.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="71.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
+      <c r="B4" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="I4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>28</v>
+      <c r="B5" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="I6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="I8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="B9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="1"/>
+      <c r="N10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
+      <c r="B12" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="I12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="I14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
+      <c r="B15" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>13</v>
+      <c r="B16" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="I16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="I18" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="1">
         <v>2</v>
       </c>
+      <c r="N20" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="I22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="I24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="I26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="I28" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="N30" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="I32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="9:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="I34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="9:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="I36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="9:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="I38" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="9:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="N40" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="9:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="I42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="9:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="I44" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="9:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="I46" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I48" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="9:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="N50" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="9:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="I52" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="9:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="I54" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="9:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="I56" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I58" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="9:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="N60" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="9:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="N62" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/PythonEscapeRoom.xlsx
+++ b/assets/PythonEscapeRoom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiandres/Projects/europycon/pyschool_repos/pyscape/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19F5E1A-CBF5-3342-8DF8-B604E1532758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC23208-DA6E-CA4D-AA55-B11A2203E8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E1E7E874-1C0D-0E41-AB9E-1E43EB992A6A}"/>
+    <workbookView xWindow="-38400" yWindow="-1560" windowWidth="38400" windowHeight="21600" xr2:uid="{E1E7E874-1C0D-0E41-AB9E-1E43EB992A6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2498,7 +2498,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2508,6 +2508,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2565,7 +2571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2575,7 +2581,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2912,8 +2919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF96B7A6-165B-6149-8595-144D7B07AA7C}">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D21:D22"/>
+    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2946,22 +2953,22 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="9">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="9">
         <v>2</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -2972,40 +2979,40 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="9"/>
       <c r="I4" s="5" t="s">
         <v>84</v>
       </c>
@@ -3062,11 +3069,11 @@
       <c r="B7" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F7" s="1"/>
@@ -3099,7 +3106,7 @@
       <c r="B9" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D9" s="1"/>
@@ -3113,7 +3120,7 @@
       <c r="B10" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D10" s="1"/>
@@ -3150,7 +3157,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F12" s="1"/>
@@ -3186,11 +3193,11 @@
       <c r="B14" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="1" t="s">
         <v>90</v>
       </c>
       <c r="F14" s="1"/>
